--- a/Turag/data/350DaysData.xlsx
+++ b/Turag/data/350DaysData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_11cc\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a93\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD6C52A-DCAC-40BA-9D4D-8AB21E9397FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C7980DC-102A-48AC-8EB5-AA5915F89BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,15 +949,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y352"/>
+  <dimension ref="A1:Y366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="A354" sqref="A354:XFD750"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367:XFD367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -28064,6 +28064,1084 @@
         <v>1.29</v>
       </c>
     </row>
+    <row r="353" spans="1:25">
+      <c r="A353" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B353">
+        <v>21.8</v>
+      </c>
+      <c r="C353">
+        <v>21.59</v>
+      </c>
+      <c r="D353">
+        <v>21.43</v>
+      </c>
+      <c r="E353">
+        <v>21.67</v>
+      </c>
+      <c r="F353">
+        <v>7.7</v>
+      </c>
+      <c r="G353">
+        <v>8.06</v>
+      </c>
+      <c r="H353">
+        <v>7.73</v>
+      </c>
+      <c r="I353">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J353">
+        <v>1643</v>
+      </c>
+      <c r="K353">
+        <v>1679</v>
+      </c>
+      <c r="L353">
+        <v>1637</v>
+      </c>
+      <c r="M353">
+        <v>1701</v>
+      </c>
+      <c r="N353">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O353">
+        <v>2.58</v>
+      </c>
+      <c r="P353">
+        <v>2.5</v>
+      </c>
+      <c r="Q353">
+        <v>2.5</v>
+      </c>
+      <c r="R353">
+        <v>28.22</v>
+      </c>
+      <c r="S353">
+        <v>27.65</v>
+      </c>
+      <c r="T353">
+        <v>27.92</v>
+      </c>
+      <c r="U353">
+        <v>28.08</v>
+      </c>
+      <c r="V353">
+        <v>1.3</v>
+      </c>
+      <c r="W353">
+        <v>1.27</v>
+      </c>
+      <c r="X353">
+        <v>1.2</v>
+      </c>
+      <c r="Y353">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="354" spans="1:25">
+      <c r="A354" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B354">
+        <v>21.92</v>
+      </c>
+      <c r="C354">
+        <v>21.25</v>
+      </c>
+      <c r="D354">
+        <v>21.38</v>
+      </c>
+      <c r="E354">
+        <v>21.62</v>
+      </c>
+      <c r="F354">
+        <v>7.71</v>
+      </c>
+      <c r="G354">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H354">
+        <v>7.83</v>
+      </c>
+      <c r="I354">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J354">
+        <v>1638</v>
+      </c>
+      <c r="K354">
+        <v>1680</v>
+      </c>
+      <c r="L354">
+        <v>1630</v>
+      </c>
+      <c r="M354">
+        <v>1698</v>
+      </c>
+      <c r="N354">
+        <v>2.42</v>
+      </c>
+      <c r="O354">
+        <v>2.54</v>
+      </c>
+      <c r="P354">
+        <v>2.52</v>
+      </c>
+      <c r="Q354">
+        <v>2.54</v>
+      </c>
+      <c r="R354">
+        <v>27.93</v>
+      </c>
+      <c r="S354">
+        <v>27.99</v>
+      </c>
+      <c r="T354">
+        <v>27.77</v>
+      </c>
+      <c r="U354">
+        <v>27.92</v>
+      </c>
+      <c r="V354">
+        <v>1.31</v>
+      </c>
+      <c r="W354">
+        <v>1.29</v>
+      </c>
+      <c r="X354">
+        <v>1.19</v>
+      </c>
+      <c r="Y354">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="355" spans="1:25">
+      <c r="A355" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B355">
+        <v>21.86</v>
+      </c>
+      <c r="C355">
+        <v>21.49</v>
+      </c>
+      <c r="D355">
+        <v>21.54</v>
+      </c>
+      <c r="E355">
+        <v>21.58</v>
+      </c>
+      <c r="F355">
+        <v>7.7</v>
+      </c>
+      <c r="G355">
+        <v>8.07</v>
+      </c>
+      <c r="H355">
+        <v>7.79</v>
+      </c>
+      <c r="I355">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="J355">
+        <v>1645</v>
+      </c>
+      <c r="K355">
+        <v>1687</v>
+      </c>
+      <c r="L355">
+        <v>1646</v>
+      </c>
+      <c r="M355">
+        <v>1696</v>
+      </c>
+      <c r="N355">
+        <v>2.44</v>
+      </c>
+      <c r="O355">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="P355">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q355">
+        <v>2.52</v>
+      </c>
+      <c r="R355">
+        <v>27.84</v>
+      </c>
+      <c r="S355">
+        <v>27.62</v>
+      </c>
+      <c r="T355">
+        <v>27.79</v>
+      </c>
+      <c r="U355">
+        <v>27.77</v>
+      </c>
+      <c r="V355">
+        <v>1.31</v>
+      </c>
+      <c r="W355">
+        <v>1.29</v>
+      </c>
+      <c r="X355">
+        <v>1.23</v>
+      </c>
+      <c r="Y355">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="356" spans="1:25">
+      <c r="A356" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B356">
+        <v>21.93</v>
+      </c>
+      <c r="C356">
+        <v>21.63</v>
+      </c>
+      <c r="D356">
+        <v>21.74</v>
+      </c>
+      <c r="E356">
+        <v>21.55</v>
+      </c>
+      <c r="F356">
+        <v>7.74</v>
+      </c>
+      <c r="G356">
+        <v>8.08</v>
+      </c>
+      <c r="H356">
+        <v>7.89</v>
+      </c>
+      <c r="I356">
+        <v>8.14</v>
+      </c>
+      <c r="J356">
+        <v>1635</v>
+      </c>
+      <c r="K356">
+        <v>1677</v>
+      </c>
+      <c r="L356">
+        <v>1643</v>
+      </c>
+      <c r="M356">
+        <v>1691</v>
+      </c>
+      <c r="N356">
+        <v>2.42</v>
+      </c>
+      <c r="O356">
+        <v>2.56</v>
+      </c>
+      <c r="P356">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q356">
+        <v>2.54</v>
+      </c>
+      <c r="R356">
+        <v>27.92</v>
+      </c>
+      <c r="S356">
+        <v>27.71</v>
+      </c>
+      <c r="T356">
+        <v>27.82</v>
+      </c>
+      <c r="U356">
+        <v>28.05</v>
+      </c>
+      <c r="V356">
+        <v>1.29</v>
+      </c>
+      <c r="W356">
+        <v>1.27</v>
+      </c>
+      <c r="X356">
+        <v>1.19</v>
+      </c>
+      <c r="Y356">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="357" spans="1:25">
+      <c r="A357" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B357">
+        <v>21.98</v>
+      </c>
+      <c r="C357">
+        <v>21.34</v>
+      </c>
+      <c r="D357">
+        <v>21.61</v>
+      </c>
+      <c r="E357">
+        <v>21.55</v>
+      </c>
+      <c r="F357">
+        <v>7.74</v>
+      </c>
+      <c r="G357">
+        <v>8</v>
+      </c>
+      <c r="H357">
+        <v>7.76</v>
+      </c>
+      <c r="I357">
+        <v>8.14</v>
+      </c>
+      <c r="J357">
+        <v>1631</v>
+      </c>
+      <c r="K357">
+        <v>1678</v>
+      </c>
+      <c r="L357">
+        <v>1647</v>
+      </c>
+      <c r="M357">
+        <v>1704</v>
+      </c>
+      <c r="N357">
+        <v>2.41</v>
+      </c>
+      <c r="O357">
+        <v>2.57</v>
+      </c>
+      <c r="P357">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q357">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="R357">
+        <v>28.24</v>
+      </c>
+      <c r="S357">
+        <v>27.66</v>
+      </c>
+      <c r="T357">
+        <v>27.75</v>
+      </c>
+      <c r="U357">
+        <v>27.75</v>
+      </c>
+      <c r="V357">
+        <v>1.29</v>
+      </c>
+      <c r="W357">
+        <v>1.28</v>
+      </c>
+      <c r="X357">
+        <v>1.21</v>
+      </c>
+      <c r="Y357">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="358" spans="1:25">
+      <c r="A358" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B358">
+        <v>21.85</v>
+      </c>
+      <c r="C358">
+        <v>21.45</v>
+      </c>
+      <c r="D358">
+        <v>21.42</v>
+      </c>
+      <c r="E358">
+        <v>21.55</v>
+      </c>
+      <c r="F358">
+        <v>7.74</v>
+      </c>
+      <c r="G358">
+        <v>8.1</v>
+      </c>
+      <c r="H358">
+        <v>7.87</v>
+      </c>
+      <c r="I358">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="J358">
+        <v>1639</v>
+      </c>
+      <c r="K358">
+        <v>1679</v>
+      </c>
+      <c r="L358">
+        <v>1649</v>
+      </c>
+      <c r="M358">
+        <v>1697</v>
+      </c>
+      <c r="N358">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O358">
+        <v>2.54</v>
+      </c>
+      <c r="P358">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q358">
+        <v>2.54</v>
+      </c>
+      <c r="R358">
+        <v>28.3</v>
+      </c>
+      <c r="S358">
+        <v>27.54</v>
+      </c>
+      <c r="T358">
+        <v>27.81</v>
+      </c>
+      <c r="U358">
+        <v>28.13</v>
+      </c>
+      <c r="V358">
+        <v>1.31</v>
+      </c>
+      <c r="W358">
+        <v>1.29</v>
+      </c>
+      <c r="X358">
+        <v>1.18</v>
+      </c>
+      <c r="Y358">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="359" spans="1:25">
+      <c r="A359" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B359">
+        <v>21.91</v>
+      </c>
+      <c r="C359">
+        <v>21.65</v>
+      </c>
+      <c r="D359">
+        <v>21.74</v>
+      </c>
+      <c r="E359">
+        <v>21.7</v>
+      </c>
+      <c r="F359">
+        <v>7.7</v>
+      </c>
+      <c r="G359">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="H359">
+        <v>7.81</v>
+      </c>
+      <c r="I359">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J359">
+        <v>1634</v>
+      </c>
+      <c r="K359">
+        <v>1681</v>
+      </c>
+      <c r="L359">
+        <v>1616</v>
+      </c>
+      <c r="M359">
+        <v>1702</v>
+      </c>
+      <c r="N359">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O359">
+        <v>2.58</v>
+      </c>
+      <c r="P359">
+        <v>2.5</v>
+      </c>
+      <c r="Q359">
+        <v>2.5</v>
+      </c>
+      <c r="R359">
+        <v>28.17</v>
+      </c>
+      <c r="S359">
+        <v>27.75</v>
+      </c>
+      <c r="T359">
+        <v>28.1</v>
+      </c>
+      <c r="U359">
+        <v>27.75</v>
+      </c>
+      <c r="V359">
+        <v>1.28</v>
+      </c>
+      <c r="W359">
+        <v>1.27</v>
+      </c>
+      <c r="X359">
+        <v>1.17</v>
+      </c>
+      <c r="Y359">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="360" spans="1:25">
+      <c r="A360" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B360">
+        <v>21.99</v>
+      </c>
+      <c r="C360">
+        <v>21.4</v>
+      </c>
+      <c r="D360">
+        <v>21.56</v>
+      </c>
+      <c r="E360">
+        <v>21.55</v>
+      </c>
+      <c r="F360">
+        <v>7.7</v>
+      </c>
+      <c r="G360">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H360">
+        <v>7.77</v>
+      </c>
+      <c r="I360">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J360">
+        <v>1650</v>
+      </c>
+      <c r="K360">
+        <v>1683</v>
+      </c>
+      <c r="L360">
+        <v>1625</v>
+      </c>
+      <c r="M360">
+        <v>1701</v>
+      </c>
+      <c r="N360">
+        <v>2.44</v>
+      </c>
+      <c r="O360">
+        <v>2.56</v>
+      </c>
+      <c r="P360">
+        <v>2.52</v>
+      </c>
+      <c r="Q360">
+        <v>2.52</v>
+      </c>
+      <c r="R360">
+        <v>28.13</v>
+      </c>
+      <c r="S360">
+        <v>27.86</v>
+      </c>
+      <c r="T360">
+        <v>27.99</v>
+      </c>
+      <c r="U360">
+        <v>27.86</v>
+      </c>
+      <c r="V360">
+        <v>1.31</v>
+      </c>
+      <c r="W360">
+        <v>1.26</v>
+      </c>
+      <c r="X360">
+        <v>1.2</v>
+      </c>
+      <c r="Y360">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="361" spans="1:25">
+      <c r="A361" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B361">
+        <v>21.63</v>
+      </c>
+      <c r="C361">
+        <v>21.27</v>
+      </c>
+      <c r="D361">
+        <v>21.3</v>
+      </c>
+      <c r="E361">
+        <v>21.53</v>
+      </c>
+      <c r="F361">
+        <v>7.72</v>
+      </c>
+      <c r="G361">
+        <v>7.98</v>
+      </c>
+      <c r="H361">
+        <v>7.79</v>
+      </c>
+      <c r="I361">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J361">
+        <v>1647</v>
+      </c>
+      <c r="K361">
+        <v>1687</v>
+      </c>
+      <c r="L361">
+        <v>1639</v>
+      </c>
+      <c r="M361">
+        <v>1704</v>
+      </c>
+      <c r="N361">
+        <v>2.42</v>
+      </c>
+      <c r="O361">
+        <v>2.57</v>
+      </c>
+      <c r="P361">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="Q361">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="R361">
+        <v>27.9</v>
+      </c>
+      <c r="S361">
+        <v>27.61</v>
+      </c>
+      <c r="T361">
+        <v>28</v>
+      </c>
+      <c r="U361">
+        <v>27.72</v>
+      </c>
+      <c r="V361">
+        <v>1.29</v>
+      </c>
+      <c r="W361">
+        <v>1.3</v>
+      </c>
+      <c r="X361">
+        <v>1.19</v>
+      </c>
+      <c r="Y361">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25">
+      <c r="A362" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B362">
+        <v>21.7</v>
+      </c>
+      <c r="C362">
+        <v>21.44</v>
+      </c>
+      <c r="D362">
+        <v>21.1</v>
+      </c>
+      <c r="E362">
+        <v>21.58</v>
+      </c>
+      <c r="F362">
+        <v>7.71</v>
+      </c>
+      <c r="G362">
+        <v>7.98</v>
+      </c>
+      <c r="H362">
+        <v>7.71</v>
+      </c>
+      <c r="I362">
+        <v>8.15</v>
+      </c>
+      <c r="J362">
+        <v>1642</v>
+      </c>
+      <c r="K362">
+        <v>1677</v>
+      </c>
+      <c r="L362">
+        <v>1612</v>
+      </c>
+      <c r="M362">
+        <v>1704</v>
+      </c>
+      <c r="N362">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O362">
+        <v>2.54</v>
+      </c>
+      <c r="P362">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q362">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="R362">
+        <v>27.9</v>
+      </c>
+      <c r="S362">
+        <v>27.56</v>
+      </c>
+      <c r="T362">
+        <v>27.83</v>
+      </c>
+      <c r="U362">
+        <v>27.9</v>
+      </c>
+      <c r="V362">
+        <v>1.28</v>
+      </c>
+      <c r="W362">
+        <v>1.28</v>
+      </c>
+      <c r="X362">
+        <v>1.18</v>
+      </c>
+      <c r="Y362">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25">
+      <c r="A363" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B363">
+        <v>21.86</v>
+      </c>
+      <c r="C363">
+        <v>21.31</v>
+      </c>
+      <c r="D363">
+        <v>21.52</v>
+      </c>
+      <c r="E363">
+        <v>21.79</v>
+      </c>
+      <c r="F363">
+        <v>7.72</v>
+      </c>
+      <c r="G363">
+        <v>7.97</v>
+      </c>
+      <c r="H363">
+        <v>7.78</v>
+      </c>
+      <c r="I363">
+        <v>8.15</v>
+      </c>
+      <c r="J363">
+        <v>1640</v>
+      </c>
+      <c r="K363">
+        <v>1688</v>
+      </c>
+      <c r="L363">
+        <v>1612</v>
+      </c>
+      <c r="M363">
+        <v>1699</v>
+      </c>
+      <c r="N363">
+        <v>2.42</v>
+      </c>
+      <c r="O363">
+        <v>2.54</v>
+      </c>
+      <c r="P363">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q363">
+        <v>2.54</v>
+      </c>
+      <c r="R363">
+        <v>28.19</v>
+      </c>
+      <c r="S363">
+        <v>27.73</v>
+      </c>
+      <c r="T363">
+        <v>28.14</v>
+      </c>
+      <c r="U363">
+        <v>28.11</v>
+      </c>
+      <c r="V363">
+        <v>1.29</v>
+      </c>
+      <c r="W363">
+        <v>1.29</v>
+      </c>
+      <c r="X363">
+        <v>1.19</v>
+      </c>
+      <c r="Y363">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="364" spans="1:25">
+      <c r="A364" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B364">
+        <v>21.67</v>
+      </c>
+      <c r="C364">
+        <v>21.42</v>
+      </c>
+      <c r="D364">
+        <v>21.25</v>
+      </c>
+      <c r="E364">
+        <v>21.79</v>
+      </c>
+      <c r="F364">
+        <v>7.74</v>
+      </c>
+      <c r="G364">
+        <v>8.07</v>
+      </c>
+      <c r="H364">
+        <v>7.85</v>
+      </c>
+      <c r="I364">
+        <v>8.14</v>
+      </c>
+      <c r="J364">
+        <v>1650</v>
+      </c>
+      <c r="K364">
+        <v>1689</v>
+      </c>
+      <c r="L364">
+        <v>1646</v>
+      </c>
+      <c r="M364">
+        <v>1691</v>
+      </c>
+      <c r="N364">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O364">
+        <v>2.57</v>
+      </c>
+      <c r="P364">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="Q364">
+        <v>2.5</v>
+      </c>
+      <c r="R364">
+        <v>28.12</v>
+      </c>
+      <c r="S364">
+        <v>27.75</v>
+      </c>
+      <c r="T364">
+        <v>28.02</v>
+      </c>
+      <c r="U364">
+        <v>28.06</v>
+      </c>
+      <c r="V364">
+        <v>1.31</v>
+      </c>
+      <c r="W364">
+        <v>1.27</v>
+      </c>
+      <c r="X364">
+        <v>1.2</v>
+      </c>
+      <c r="Y364">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25">
+      <c r="A365" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B365">
+        <v>21.66</v>
+      </c>
+      <c r="C365">
+        <v>21.48</v>
+      </c>
+      <c r="D365">
+        <v>21.82</v>
+      </c>
+      <c r="E365">
+        <v>21.57</v>
+      </c>
+      <c r="F365">
+        <v>7.72</v>
+      </c>
+      <c r="G365">
+        <v>8.09</v>
+      </c>
+      <c r="H365">
+        <v>7.71</v>
+      </c>
+      <c r="I365">
+        <v>8.14</v>
+      </c>
+      <c r="J365">
+        <v>1645</v>
+      </c>
+      <c r="K365">
+        <v>1687</v>
+      </c>
+      <c r="L365">
+        <v>1616</v>
+      </c>
+      <c r="M365">
+        <v>1705</v>
+      </c>
+      <c r="N365">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O365">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P365">
+        <v>2.5</v>
+      </c>
+      <c r="Q365">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="R365">
+        <v>27.89</v>
+      </c>
+      <c r="S365">
+        <v>27.73</v>
+      </c>
+      <c r="T365">
+        <v>27.84</v>
+      </c>
+      <c r="U365">
+        <v>27.98</v>
+      </c>
+      <c r="V365">
+        <v>1.27</v>
+      </c>
+      <c r="W365">
+        <v>1.27</v>
+      </c>
+      <c r="X365">
+        <v>1.23</v>
+      </c>
+      <c r="Y365">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25">
+      <c r="A366" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B366">
+        <v>21.75</v>
+      </c>
+      <c r="C366">
+        <v>21.51</v>
+      </c>
+      <c r="D366">
+        <v>21.69</v>
+      </c>
+      <c r="E366">
+        <v>21.75</v>
+      </c>
+      <c r="F366">
+        <v>7.72</v>
+      </c>
+      <c r="G366">
+        <v>8.02</v>
+      </c>
+      <c r="H366">
+        <v>7.81</v>
+      </c>
+      <c r="I366">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J366">
+        <v>1636</v>
+      </c>
+      <c r="K366">
+        <v>1689</v>
+      </c>
+      <c r="L366">
+        <v>1637</v>
+      </c>
+      <c r="M366">
+        <v>1704</v>
+      </c>
+      <c r="N366">
+        <v>2.44</v>
+      </c>
+      <c r="O366">
+        <v>2.56</v>
+      </c>
+      <c r="P366">
+        <v>2.5</v>
+      </c>
+      <c r="Q366">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="R366">
+        <v>28.24</v>
+      </c>
+      <c r="S366">
+        <v>27.8</v>
+      </c>
+      <c r="T366">
+        <v>27.78</v>
+      </c>
+      <c r="U366">
+        <v>27.92</v>
+      </c>
+      <c r="V366">
+        <v>1.29</v>
+      </c>
+      <c r="W366">
+        <v>1.28</v>
+      </c>
+      <c r="X366">
+        <v>1.22</v>
+      </c>
+      <c r="Y366">
+        <v>1.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
